--- a/biology/Botanique/Écaille_(botanique)/Écaille_(botanique).xlsx
+++ b/biology/Botanique/Écaille_(botanique)/Écaille_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89caille_(botanique)</t>
+          <t>Écaille_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, les écailles sont de organes généralement aplatis, plus ou moins coriaces, recouvrant les bourgeons des Angiospermes et les cônes des Gymnospermes, mais parfois aussi totalement ou partiellement des tiges, des bulbes ou des fruits. Elles dérivent généralement d'une feuille, d'une bractée ou d'un poil, modifié et aplati.
 </t>
